--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value234.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value234.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6025646095806058</v>
+        <v>1.185574173927307</v>
       </c>
       <c r="B1">
-        <v>0.5806422997312074</v>
+        <v>2.133893489837646</v>
       </c>
       <c r="C1">
-        <v>0.5942029091783736</v>
+        <v>3.780712366104126</v>
       </c>
       <c r="D1">
-        <v>0.7810985519805622</v>
+        <v>3.268907070159912</v>
       </c>
       <c r="E1">
-        <v>1.301354443895309</v>
+        <v>1.143660306930542</v>
       </c>
     </row>
   </sheetData>
